--- a/spliced/walkingToRunning/2023-03-26_17-13-09/accelerometer_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-26_17-13-09/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.554832068596112</v>
+        <v>6.48236270504103</v>
       </c>
       <c r="B2" t="n">
-        <v>-9.960963349315996</v>
+        <v>-11.76500675559703</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3889824244198911</v>
+        <v>1.762938408561835</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.270810820121127</v>
+        <v>6.554832068596112</v>
       </c>
       <c r="B3" t="n">
-        <v>-15.11809787434101</v>
+        <v>-9.960963349315996</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.21822886638214</v>
+        <v>0.3889824244198911</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.161586901100894</v>
+        <v>1.270810820121127</v>
       </c>
       <c r="B4" t="n">
-        <v>-34.17206232060385</v>
+        <v>-15.11809787434101</v>
       </c>
       <c r="C4" t="n">
-        <v>-13.43424063624617</v>
+        <v>-3.21822886638214</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>16.23866346791305</v>
+        <v>4.161586901100894</v>
       </c>
       <c r="B5" t="n">
-        <v>-32.43619377178391</v>
+        <v>-34.17206232060385</v>
       </c>
       <c r="C5" t="n">
-        <v>20.3123472224284</v>
+        <v>-13.43424063624617</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>14.53786420558697</v>
+        <v>16.23866346791305</v>
       </c>
       <c r="B6" t="n">
-        <v>-19.52934185049154</v>
+        <v>-32.43619377178391</v>
       </c>
       <c r="C6" t="n">
-        <v>3.874976218734639</v>
+        <v>20.3123472224284</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10.94828109846589</v>
+        <v>14.53786420558697</v>
       </c>
       <c r="B7" t="n">
-        <v>-29.50764421073114</v>
+        <v>-19.52934185049154</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.392052579321263</v>
+        <v>3.874976218734639</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.2613377070558691</v>
+        <v>10.94828109846589</v>
       </c>
       <c r="B8" t="n">
-        <v>-5.766235414789534</v>
+        <v>-29.50764421073114</v>
       </c>
       <c r="C8" t="n">
-        <v>-11.53004543820797</v>
+        <v>-3.392052579321263</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-8.008382849930468</v>
+        <v>0.2613377070558691</v>
       </c>
       <c r="B9" t="n">
-        <v>-17.18495537562934</v>
+        <v>-5.766235414789534</v>
       </c>
       <c r="C9" t="n">
-        <v>-4.449882018631926</v>
+        <v>-11.53004543820797</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.89743446118263</v>
+        <v>-8.008382849930468</v>
       </c>
       <c r="B10" t="n">
-        <v>-51.36141292298031</v>
+        <v>-17.18495537562934</v>
       </c>
       <c r="C10" t="n">
-        <v>19.67166264281084</v>
+        <v>-4.449882018631926</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3.437626498838821</v>
+        <v>2.89743446118263</v>
       </c>
       <c r="B11" t="n">
-        <v>-26.48974986629606</v>
+        <v>-51.36141292298031</v>
       </c>
       <c r="C11" t="n">
-        <v>10.59604146335671</v>
+        <v>19.67166264281084</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>7.019109212232532</v>
+        <v>3.437626498838821</v>
       </c>
       <c r="B12" t="n">
-        <v>-60.06252640782114</v>
+        <v>-26.48974986629606</v>
       </c>
       <c r="C12" t="n">
-        <v>22.39667311821185</v>
+        <v>10.59604146335671</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-50.40519938811362</v>
+        <v>7.019109212232532</v>
       </c>
       <c r="B13" t="n">
-        <v>25.55000802561638</v>
+        <v>-60.06252640782114</v>
       </c>
       <c r="C13" t="n">
-        <v>-26.14382194814056</v>
+        <v>22.39667311821185</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-23.51139167132288</v>
+        <v>-50.40519938811362</v>
       </c>
       <c r="B14" t="n">
-        <v>8.301538435793596</v>
+        <v>25.55000802561638</v>
       </c>
       <c r="C14" t="n">
-        <v>-5.364260246740429</v>
+        <v>-26.14382194814056</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>19.2137557762104</v>
+        <v>-23.51139167132288</v>
       </c>
       <c r="B15" t="n">
-        <v>-15.87342219062932</v>
+        <v>8.301538435793596</v>
       </c>
       <c r="C15" t="n">
-        <v>9.123838287690727</v>
+        <v>-5.364260246740429</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>22.99379491015694</v>
+        <v>19.2137557762104</v>
       </c>
       <c r="B16" t="n">
-        <v>-14.08175292462935</v>
+        <v>-15.87342219062932</v>
       </c>
       <c r="C16" t="n">
-        <v>15.77189321149119</v>
+        <v>9.123838287690727</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>11.55451533280682</v>
+        <v>22.99379491015694</v>
       </c>
       <c r="B17" t="n">
-        <v>-3.884813089397051</v>
+        <v>-14.08175292462935</v>
       </c>
       <c r="C17" t="n">
-        <v>16.82804655633578</v>
+        <v>15.77189321149119</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-15.45424350717436</v>
+        <v>11.55451533280682</v>
       </c>
       <c r="B18" t="n">
-        <v>-10.65710430316497</v>
+        <v>-3.884813089397051</v>
       </c>
       <c r="C18" t="n">
-        <v>-10.47200286190797</v>
+        <v>16.82804655633578</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.6317766937758691</v>
+        <v>-15.45424350717436</v>
       </c>
       <c r="B19" t="n">
-        <v>-8.197802544957472</v>
+        <v>-10.65710430316497</v>
       </c>
       <c r="C19" t="n">
-        <v>-19.11218975130376</v>
+        <v>-10.47200286190797</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>17.57564231703969</v>
+        <v>0.6317766937758691</v>
       </c>
       <c r="B20" t="n">
-        <v>-9.190923457646097</v>
+        <v>-8.197802544957472</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.481564210923441</v>
+        <v>-19.11218975130376</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>17.57564231703969</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-9.190923457646097</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.481564210923441</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
         <v>7.328208127733031</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B22" t="n">
         <v>-16.61346639454043</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C22" t="n">
         <v>21.1434863812355</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>13.14612888104349</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.4819092987650375</v>
+      </c>
+      <c r="C23" t="n">
+        <v>29.9319970146727</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22.3981020806244</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-18.41001325154172</v>
+      </c>
+      <c r="C24" t="n">
+        <v>26.03648814838894</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>25.07217257589271</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-46.9146286031819</v>
+      </c>
+      <c r="C25" t="n">
+        <v>26.18006417501044</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1.007597878492922</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2.652457189823263</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.160516032856393</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-11.37837042466059</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-20.30985535047345</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3.219444780718657</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-19.19458270599844</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-40.56597906581633</v>
+      </c>
+      <c r="C28" t="n">
+        <v>23.86108243531293</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-2.306829021780334</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-12.78860808340835</v>
+      </c>
+      <c r="C29" t="n">
+        <v>22.76510469426068</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-29.36129014663261</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-62.85535855846575</v>
+      </c>
+      <c r="C30" t="n">
+        <v>59.51861236108672</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-37.91703132502937</v>
+      </c>
+      <c r="B31" t="n">
+        <v>6.169044086287685</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-16.59176512449484</v>
       </c>
     </row>
   </sheetData>
